--- a/data/trans_dic/P1802-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1802-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,76; 13,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>3,96; 12,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,18; 18,09</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 16,41</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 14,73</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 12,88</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 14,35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 13,75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,34</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 18,33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 13,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 15,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 12,63</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>11,17; 16,44</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14,42; 21,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 18,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 17,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>0; 0,15</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,59; 16,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14,0; 18,33</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>13,97; 20,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>15,47; 41,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 19,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 22,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14,29; 18,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17,94; 30,79</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>12,41; 19,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>17,24; 23,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22,13; 30,1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22,71; 28,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18,23; 23,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 25,19</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17,82%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>14,36; 20,99</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14,96; 19,66</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 27,34</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 21,23</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19,09; 23,69</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 19,78</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>13,19; 15,62</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 21,97</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 20,29</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 18,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 17,63</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 19,12</t>
         </is>
       </c>
     </row>
@@ -1158,15 +1633,15 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1802-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,19%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,98</t>
+          <t>3,98; 13,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 16,41</t>
+          <t>6,91; 16,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,88</t>
+          <t>6,37; 13,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,75</t>
+          <t>6,59; 14,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,47</t>
+          <t>6,62; 13,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,63</t>
+          <t>7,42; 12,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>16,68%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 21,39</t>
+          <t>14,98; 22,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 17,39</t>
+          <t>12,88; 18,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,33</t>
+          <t>14,58; 18,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>31,12%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 41,36</t>
+          <t>15,92; 73,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 22,87</t>
+          <t>16,98; 23,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,94; 30,79</t>
+          <t>17,95; 57,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>23,31%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,24; 23,72</t>
+          <t>17,82; 24,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,71; 28,18</t>
+          <t>22,98; 28,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,97; 25,19</t>
+          <t>21,34; 25,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,36; 20,99</t>
+          <t>12,78; 21,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,96; 19,66</t>
+          <t>15,74; 21,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20,27; 29,72</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 22,23</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>21,21; 27,34</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>12,32; 21,23</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,09; 23,69</t>
+          <t>17,94; 24,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,45; 19,78</t>
+          <t>7,95; 21,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>18,79%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 23,03</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 19,92</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 28,9</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,71; 23,26</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 25,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,72; 21,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14,37%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21,87%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>13,19; 15,62</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>15,04; 21,97</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15,47; 42,06</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>17,52; 20,29</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15,82; 18,79</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 18,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>15,76; 17,63</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,15; 19,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16,22; 28,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1802-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,48</t>
+          <t>7,48; 13,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 13,33</t>
+          <t>3,97; 13,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 18,09</t>
+          <t>11,49; 18,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 16,66</t>
+          <t>7,04; 16,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,73</t>
+          <t>10,17; 14,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,03</t>
+          <t>6,27; 12,94</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 14,35</t>
+          <t>8,64; 14,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 14,43</t>
+          <t>6,99; 15,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 18,33</t>
+          <t>12,5; 18,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 13,8</t>
+          <t>6,0; 13,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 15,31</t>
+          <t>11,39; 15,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,84</t>
+          <t>7,56; 12,81</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,44</t>
+          <t>10,97; 16,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,0</t>
+          <t>14,58; 22,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,46</t>
+          <t>12,87; 18,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 18,03</t>
+          <t>12,91; 17,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,59; 16,37</t>
+          <t>12,53; 16,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 18,96</t>
+          <t>14,66; 18,92</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 20,17</t>
+          <t>13,94; 20,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 73,94</t>
+          <t>15,74; 73,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,3</t>
+          <t>13,4; 19,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 23,01</t>
+          <t>17,17; 23,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 18,82</t>
+          <t>14,53; 18,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 57,37</t>
+          <t>18,17; 58,6</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 19,62</t>
+          <t>12,81; 19,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,24</t>
+          <t>17,91; 24,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 30,1</t>
+          <t>22,28; 30,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,98; 28,55</t>
+          <t>23,14; 28,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,58</t>
+          <t>18,38; 23,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,34; 25,63</t>
+          <t>21,18; 25,55</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,78; 21,06</t>
+          <t>12,68; 21,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,74; 21,98</t>
+          <t>15,81; 22,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 29,72</t>
+          <t>20,47; 29,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 22,23</t>
+          <t>5,77; 22,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,18</t>
+          <t>17,98; 24,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,95; 21,02</t>
+          <t>6,89; 20,9</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,03</t>
+          <t>14,21; 22,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,92</t>
+          <t>12,84; 19,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,47; 28,9</t>
+          <t>19,42; 28,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,26</t>
+          <t>17,91; 23,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,59; 25,29</t>
+          <t>18,39; 25,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 21,18</t>
+          <t>16,56; 20,76</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,19; 15,62</t>
+          <t>13,21; 15,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,47; 42,06</t>
+          <t>15,51; 39,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,29</t>
+          <t>17,61; 20,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,72</t>
+          <t>14,19; 18,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,76; 17,63</t>
+          <t>15,7; 17,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,22; 28,47</t>
+          <t>16,13; 29,32</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un centro de servicio de radiología</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43011</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30585</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>57781</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34987</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>100792</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65572</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31376; 56565</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15868; 52273</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45471; 73306</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22063; 52058</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>82899; 118868</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44718; 92258</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>67347</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43444</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>85704</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52032</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>153051</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95476</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50998; 83744</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29604; 63958</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>70465; 103909</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30667; 70002</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>131428; 179000</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>70695; 119783</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91092</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>97194</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>102502</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>82707</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>193594</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>179901</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73424; 110409</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>78213; 118332</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2010</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>85092; 123538</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70012; 97019</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>166663; 218793</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>158145; 204061</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>108036</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>352966</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>105447</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>144950</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>213483</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>497916</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2055</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>90042; 130086</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>139743; 649782</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>86950; 124796</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>122247; 166013</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2172</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>188190; 242574</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>290649; 937627</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>75063</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>117386</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>128973</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>140879</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>204036</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>258265</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61199; 93028</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100510; 137440</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>110694; 150440</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>126477; 155754</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>179198; 233691</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>234664; 283016</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>55754</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>69396</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>93473</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>85764</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>149227</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>155161</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2101</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42380; 70352</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>58084; 82088</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>77317; 109997</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>35094; 135445</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>128029; 173679</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>67238; 203839</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>47304</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>45440</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>95381</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87450</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>142685</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>132890</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>36525; 57885</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>36223; 55028</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2202</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>77715; 114370</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>76179; 99011</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2141</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>120831; 166642</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>117141; 146843</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>487606</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>756412</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>669261</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>628769</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1156867</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1385181</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>448325; 529152</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>536352; 1355860</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>624057; 719826</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>519362; 688894</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1089079; 1217827</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1147801; 2086821</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>